--- a/Client/assets/Csv/Tech.xlsx
+++ b/Client/assets/Csv/Tech.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,19 +81,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>温室技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenhouse2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海水集铁技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironfromsea7</t>
+    <t>海底集铁技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底采气技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironfrseafloor7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4frseafloor3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重水提取技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deuterfrsea01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳纤维制备技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carbonf0834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型聚变技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyfusion217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵升级II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克升级II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直升机升级II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战舰升级II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipup23253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankup235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marineup253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopperup25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marinesuit20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank23532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper424</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,24 +544,119 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>150</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Client/assets/Csv/Tech.xlsx
+++ b/Client/assets/Csv/Tech.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -55,10 +55,6 @@
     <t>Require3</t>
   </si>
   <si>
-    <t>TotalWork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Raw0Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,14 +158,18 @@
   </si>
   <si>
     <t>chopper424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,6 +217,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,12 +491,12 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,144 +519,144 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10">
         <v>200</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11">
         <v>300</v>

--- a/Client/assets/Csv/Tech.xlsx
+++ b/Client/assets/Csv/Tech.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$L$12</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,51 +120,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>步兵升级II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克升级II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直升机升级II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战舰升级II</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipup23253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tankup235</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marineup253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopperup25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marinesuit20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tank23532</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chopper424</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方舟引擎加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chopper015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tank015232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ship098831</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两栖坦克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作战无人机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片生产技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chip091331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arkspeed1011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -519,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
@@ -538,6 +537,9 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -547,10 +549,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -558,111 +563,133 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H6">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H7">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8">
-        <v>100</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>150</v>
       </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <v>200</v>
       </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>300</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1010</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>12000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L12">
+    <sortState ref="A2:L8">
+      <sortCondition ref="B1:B8"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
